--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-11385_NPE.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-11385_NPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED318DF2-E38F-4E7E-9D25-C9491346B4F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB52759-8E6B-4999-9B14-18EABC316BE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27360" windowHeight="15090" xr2:uid="{D2C7576E-0238-4E2B-8134-3BFA64FEF82E}"/>
+    <workbookView xWindow="3045" yWindow="855" windowWidth="21225" windowHeight="13500" xr2:uid="{D2C7576E-0238-4E2B-8134-3BFA64FEF82E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>C1</t>
   </si>
@@ -44,9 +39,6 @@
     <t>100, 200, 300</t>
   </si>
   <si>
-    <t>Integer [] intArr</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -60,6 +52,12 @@
   </si>
   <si>
     <t>Integer[] intArr</t>
+  </si>
+  <si>
+    <t>contains(intArr2, param1)</t>
+  </si>
+  <si>
+    <t>Integer [1] intArr2</t>
   </si>
 </sst>
 </file>
@@ -438,7 +436,7 @@
   <dimension ref="C3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +447,7 @@
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -459,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>1</v>
@@ -467,19 +465,19 @@
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -489,7 +487,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
